--- a/input.xlsx
+++ b/input.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\RPA_Challenge\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\RPA_Challenge\devdata\work-items-in\split-orders-file-test-input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CE1ECCF-267A-4C48-B97C-C7C33E6DF405}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{637729C9-6090-4D83-BCA1-F0A501E4EA6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Name</t>
   </si>
@@ -43,9 +43,6 @@
   </si>
   <si>
     <t>PARK</t>
-  </si>
-  <si>
-    <t>ISRAEL</t>
   </si>
 </sst>
 </file>
@@ -437,7 +434,7 @@
   <dimension ref="A1:Z1048576"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -631,9 +628,7 @@
       <c r="Z6" s="2"/>
     </row>
     <row r="7" spans="1:26" ht="15" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
@@ -752,7 +747,7 @@
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
-      <c r="H11" s="4"/>
+      <c r="H11" s="2"/>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>

--- a/input.xlsx
+++ b/input.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\RPA_Challenge\devdata\work-items-in\split-orders-file-test-input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\RPA_Challenge\devdata\work-items-in\test-input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{637729C9-6090-4D83-BCA1-F0A501E4EA6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13A8EEBC-6E62-4E59-9F1A-DA0BBE0BF1E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11505" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="news" sheetId="1" r:id="rId1"/>
@@ -25,21 +25,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>Name</t>
   </si>
   <si>
     <t>NBA</t>
-  </si>
-  <si>
-    <t>NYC</t>
-  </si>
-  <si>
-    <t>GLOBAL CRISIS</t>
-  </si>
-  <si>
-    <t>GAMES</t>
   </si>
   <si>
     <t>PARK</t>
@@ -434,7 +425,7 @@
   <dimension ref="A1:Z1048576"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -538,9 +529,7 @@
       <c r="Z3" s="2"/>
     </row>
     <row r="4" spans="1:26" ht="15" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>3</v>
-      </c>
+      <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
@@ -568,9 +557,7 @@
       <c r="Z4" s="2"/>
     </row>
     <row r="5" spans="1:26" ht="15" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -598,9 +585,6 @@
       <c r="Z5" s="2"/>
     </row>
     <row r="6" spans="1:26" ht="15" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>5</v>
-      </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>

--- a/input.xlsx
+++ b/input.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\RPA_Challenge\devdata\work-items-in\test-input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\RPA_Challenge\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13A8EEBC-6E62-4E59-9F1A-DA0BBE0BF1E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D966224-4B9C-47B4-91BB-851EBB371105}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11505" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="news" sheetId="1" r:id="rId1"/>
@@ -25,15 +25,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Name</t>
+  </si>
+  <si>
+    <t>Rain</t>
+  </si>
+  <si>
+    <t>Stars</t>
   </si>
   <si>
     <t>NBA</t>
   </si>
   <si>
-    <t>PARK</t>
+    <t>NASA</t>
+  </si>
+  <si>
+    <t>Games</t>
+  </si>
+  <si>
+    <t>NYC</t>
   </si>
 </sst>
 </file>
@@ -425,7 +437,7 @@
   <dimension ref="A1:Z1048576"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -529,7 +541,9 @@
       <c r="Z3" s="2"/>
     </row>
     <row r="4" spans="1:26" ht="15" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
+      <c r="A4" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
@@ -557,7 +571,9 @@
       <c r="Z4" s="2"/>
     </row>
     <row r="5" spans="1:26" ht="15" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
+      <c r="A5" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -585,6 +601,9 @@
       <c r="Z5" s="2"/>
     </row>
     <row r="6" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
@@ -612,9 +631,11 @@
       <c r="Z6" s="2"/>
     </row>
     <row r="7" spans="1:26" ht="15" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
+      <c r="A7" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
+      <c r="C7" s="4"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
@@ -839,7 +860,7 @@
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
-      <c r="D15" s="2"/>
+      <c r="D15" s="4"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
